--- a/Data-Analytics-Excel Files/day-12.xlsx
+++ b/Data-Analytics-Excel Files/day-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonal Kshirsagar\Desktop\Data Analytics\ARC Technology\Excel\Data-Analytics-Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED7EC0-7BBC-4E26-BBF6-649E23EE60A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1C893-967F-4187-9210-2C4045C75B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="2" r:id="rId1"/>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A40DD5A-2EA0-453B-B205-8D25B7B6EF10}">
   <dimension ref="C2:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,14 +1452,14 @@
         <v>39</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:E21" si="4">VLOOKUP($C16,$D$5:$O$11,6,FALSE)</f>
+        <f>VLOOKUP($C16,$D$5:$J$11,6,FALSE)</f>
         <v>100000</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f t="shared" ref="H16:H21" si="5">VLOOKUP(G16,$D$5:$O$11,3,FALSE)</f>
+        <f>VLOOKUP(G16,$D$5:$J$11,3,FALSE)</f>
         <v>offline</v>
       </c>
       <c r="J16" s="5" t="s">
@@ -1477,14 +1477,14 @@
         <v>40</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E17:E21" si="4">VLOOKUP($C17,$D$5:$J$11,6,FALSE)</f>
         <v>150000</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H17:H21" si="5">VLOOKUP(G17,$D$5:$J$11,3,FALSE)</f>
         <v>online</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -2733,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC74A8-5230-496A-92D0-3B93596461BA}">
   <dimension ref="D5:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Data-Analytics-Excel Files/day-12.xlsx
+++ b/Data-Analytics-Excel Files/day-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonal Kshirsagar\Desktop\Data Analytics\ARC Technology\Excel\Data-Analytics-Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB1C893-967F-4187-9210-2C4045C75B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DDF5C40-E284-4D7B-8084-D8CD2ABE4454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="2" r:id="rId1"/>
@@ -20,50 +20,65 @@
     <sheet name="Match" sheetId="17" r:id="rId5"/>
     <sheet name="index match" sheetId="18" r:id="rId6"/>
     <sheet name="Xlookup" sheetId="19" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="65">
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
   <si>
     <t>ARC</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
+    <t>Row</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>Row</t>
+    <t>2 gap</t>
   </si>
   <si>
     <t>3 hour</t>
@@ -72,19 +87,31 @@
     <t xml:space="preserve"> sitting hour</t>
   </si>
   <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>step1</t>
+  </si>
+  <si>
     <t>1hour</t>
   </si>
   <si>
     <t xml:space="preserve">only recording </t>
   </si>
   <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>step2</t>
+  </si>
+  <si>
     <t>with recoding prac</t>
   </si>
   <si>
     <t>30 min</t>
   </si>
   <si>
-    <t>15 min</t>
+    <t>step3</t>
   </si>
   <si>
     <t>no recording just prac</t>
@@ -93,99 +120,84 @@
     <t>fail step 1</t>
   </si>
   <si>
-    <t>step1</t>
-  </si>
-  <si>
-    <t>step2</t>
-  </si>
-  <si>
-    <t>step3</t>
-  </si>
-  <si>
-    <t>2 gap</t>
-  </si>
-  <si>
-    <t>elephant</t>
+    <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>shop_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>customer_count</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>outlet</t>
   </si>
   <si>
     <t>dmart</t>
   </si>
   <si>
+    <t>automotive sq, near tp road , 400001</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
     <t>vishal mega mart</t>
   </si>
   <si>
+    <t>bhande plot</t>
+  </si>
+  <si>
+    <t>swiggy instamart</t>
+  </si>
+  <si>
     <t>reliance mart</t>
   </si>
   <si>
-    <t>swiggy instamart</t>
+    <t>jaripatka</t>
+  </si>
+  <si>
+    <t>dukan_wala</t>
+  </si>
+  <si>
+    <t>nandanvan</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>big basket</t>
   </si>
   <si>
-    <t>dukan_wala</t>
-  </si>
-  <si>
-    <t>shop_name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>bhande plot</t>
-  </si>
-  <si>
-    <t>jaripatka</t>
-  </si>
-  <si>
-    <t>nandanvan</t>
-  </si>
-  <si>
     <t xml:space="preserve">wardhman </t>
   </si>
   <si>
     <t>Nagpur</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>offline</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>HLOOKUP</t>
   </si>
   <si>
     <t>outlets</t>
   </si>
   <si>
-    <t>customer_count</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>automotive sq, near tp road , 400001</t>
-  </si>
-  <si>
-    <t>VLOOKUP</t>
-  </si>
-  <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>HLOOKUP</t>
-  </si>
-  <si>
-    <t>outlet</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>row_num</t>
   </si>
   <si>
@@ -195,23 +207,44 @@
     <t>index_num</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>index_row</t>
   </si>
   <si>
     <t>index_col</t>
   </si>
   <si>
-    <t>index</t>
+    <t>id</t>
   </si>
   <si>
     <t>automotive sq</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +645,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -633,13 +673,6 @@
           <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -673,7 +706,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9653A1E6-ADD4-45FE-9334-E921D27B7879}" name="Table1" displayName="Table1" ref="C6:I12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9653A1E6-ADD4-45FE-9334-E921D27B7879}" name="Table1" displayName="Table1" ref="C6:I12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="C6:I12" xr:uid="{9653A1E6-ADD4-45FE-9334-E921D27B7879}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4A071E0F-BD66-427B-9C83-D61260E5A25D}" name="shop_name" dataDxfId="6"/>
@@ -957,114 +990,114 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:12">
       <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12">
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12">
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12">
       <c r="I8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12">
       <c r="D9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12">
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12">
       <c r="D11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="4:12">
       <c r="H13" t="s">
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1076,11 +1109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A40DD5A-2EA0-453B-B205-8D25B7B6EF10}">
   <dimension ref="C2:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1093,9 +1126,9 @@
     <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17">
       <c r="D2" s="22" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -1104,61 +1137,61 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17">
       <c r="O3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
       <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="57" customHeight="1">
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ref="G6:G11" si="0">VLOOKUP($D6,$L$5:$M$11,2,FALSE)</f>
@@ -1175,7 +1208,7 @@
         <v>7000</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M6" s="5">
         <v>2</v>
@@ -1195,15 +1228,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17">
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -1220,7 +1253,7 @@
         <v>700</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M7" s="5">
         <v>1</v>
@@ -1240,15 +1273,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17">
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
@@ -1265,7 +1298,7 @@
         <v>5000</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -1285,15 +1318,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17">
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
@@ -1310,7 +1343,7 @@
         <v>100</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M9" s="5">
         <v>6</v>
@@ -1330,15 +1363,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17">
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
@@ -1355,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M10" s="5">
         <v>5</v>
@@ -1375,15 +1408,15 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17">
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
@@ -1400,7 +1433,7 @@
         <v>1000</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M11" s="5">
         <v>3</v>
@@ -1420,178 +1453,178 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:17">
       <c r="C15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="3:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:17" ht="51.75" customHeight="1">
       <c r="C16" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1">
         <f>VLOOKUP($C16,$D$5:$J$11,6,FALSE)</f>
         <v>100000</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>VLOOKUP(G16,$D$5:$J$11,3,FALSE)</f>
         <v>offline</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E21" si="4">VLOOKUP($C17,$D$5:$J$11,6,FALSE)</f>
         <v>150000</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" ref="H17:H21" si="5">VLOOKUP(G17,$D$5:$J$11,3,FALSE)</f>
         <v>online</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="5"/>
         <v>offline</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="60">
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>offline</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>offline</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>online</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1643,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1623,9 +1656,9 @@
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="32.25" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -1645,38 +1678,38 @@
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="43.5" customHeight="1">
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
@@ -1691,15 +1724,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1714,15 +1747,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5">
         <v>10</v>
@@ -1737,15 +1770,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5">
         <v>6</v>
@@ -1760,33 +1793,33 @@
         <v>5000</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="75">
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5">
         <v>5</v>
@@ -1801,10 +1834,10 @@
         <v>7000</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="5">
         <v>2</v>
@@ -1819,15 +1852,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="14">
         <v>10</v>
@@ -1842,10 +1875,10 @@
         <v>20</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="5">
         <v>1</v>
@@ -1860,12 +1893,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="K13" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M13" s="5">
         <v>10</v>
@@ -1880,12 +1913,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="K14" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M14" s="5">
         <v>6</v>
@@ -1900,12 +1933,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="K15" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M15" s="5">
         <v>5</v>
@@ -1920,30 +1953,30 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M16" s="5">
         <v>3</v>
@@ -1958,9 +1991,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" ht="45">
       <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>HLOOKUP(D16,$C$6:$I$12,2,FALSE)</f>
@@ -1983,32 +2016,32 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8">
       <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5">
         <v>10</v>
@@ -2023,9 +2056,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8">
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>HLOOKUP(D20,Table1[#All],5,FALSE)</f>
@@ -2067,13 +2100,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9">
       <c r="C4">
         <v>1</v>
       </c>
@@ -2096,44 +2129,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="25.5" customHeight="1">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -2148,18 +2181,18 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -2174,18 +2207,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -2200,18 +2233,18 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2226,18 +2259,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -2252,18 +2285,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
@@ -2278,7 +2311,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9">
       <c r="C13" t="e">
         <f>INDEX(C5:I11,C8,F5)</f>
         <v>#VALUE!</v>
@@ -2293,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9">
       <c r="F14" s="3">
         <v>5</v>
       </c>
@@ -2318,44 +2351,44 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="18">
         <v>5</v>
@@ -2370,15 +2403,15 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="18">
         <v>2</v>
@@ -2393,15 +2426,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="18">
         <v>6</v>
@@ -2416,15 +2449,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
@@ -2439,15 +2472,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" s="18">
         <v>3</v>
@@ -2462,15 +2495,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="18">
         <v>10</v>
@@ -2485,23 +2518,23 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <f>MATCH(A13,B4:B10,0)</f>
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13">
         <f>MATCH(F13,D4:D10,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="F14" s="19">
         <v>2</v>
       </c>
@@ -2523,7 +2556,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -2531,38 +2564,38 @@
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9">
       <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="I5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="75">
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="18">
         <v>5</v>
@@ -2577,15 +2610,15 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:9">
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="18">
         <v>2</v>
@@ -2600,15 +2633,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9">
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="18">
         <v>6</v>
@@ -2623,15 +2656,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9">
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
@@ -2646,15 +2679,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9">
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18">
         <v>3</v>
@@ -2669,15 +2702,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:9">
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="18">
         <v>10</v>
@@ -2692,17 +2725,17 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:9">
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
       <c r="C14" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -2712,12 +2745,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9">
       <c r="C15" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <f>MATCH(D15,C5:I5,0)</f>
@@ -2731,49 +2764,58 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDC74A8-5230-496A-92D0-3B93596461BA}">
-  <dimension ref="D5:J15"/>
+  <dimension ref="C5:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10">
+      <c r="C5" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="40.5" customHeight="1">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="18">
         <v>5</v>
@@ -2788,15 +2830,18 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="18">
         <v>2</v>
@@ -2811,15 +2856,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="18">
         <v>6</v>
@@ -2834,15 +2882,18 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" s="18">
         <v>1</v>
@@ -2857,15 +2908,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="18">
         <v>3</v>
@@ -2880,15 +2934,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:10">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="18">
         <v>10</v>
@@ -2903,9 +2960,150 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:10">
       <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xlfn.XLOOKUP(Sheet1!C6,D6:D11,Sheet1!F6:F11,"Is not found",0)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACFB80-CAD0-4DD6-8CC4-C770D008E9F6}">
+  <dimension ref="B5:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:6">
+      <c r="B5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
